--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H2">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I2">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J2">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>492.021708888287</v>
+        <v>475.319005090003</v>
       </c>
       <c r="R2">
-        <v>4428.195379994583</v>
+        <v>4277.871045810027</v>
       </c>
       <c r="S2">
-        <v>0.006258866179059005</v>
+        <v>0.005490621691243126</v>
       </c>
       <c r="T2">
-        <v>0.006258866179059004</v>
+        <v>0.005490621691243126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H3">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I3">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J3">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>540.9603969884596</v>
+        <v>550.6746510772236</v>
       </c>
       <c r="R3">
-        <v>4868.643572896136</v>
+        <v>4956.071859695013</v>
       </c>
       <c r="S3">
-        <v>0.006881401108442035</v>
+        <v>0.006361088346235656</v>
       </c>
       <c r="T3">
-        <v>0.006881401108442033</v>
+        <v>0.006361088346235656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H4">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I4">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J4">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>299.8447267962887</v>
+        <v>417.9854845731663</v>
       </c>
       <c r="R4">
-        <v>2698.602541166598</v>
+        <v>3761.869361158496</v>
       </c>
       <c r="S4">
-        <v>0.00381423824520836</v>
+        <v>0.004828336640542348</v>
       </c>
       <c r="T4">
-        <v>0.003814238245208359</v>
+        <v>0.004828336640542348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H5">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I5">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J5">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>218.2122821283045</v>
+        <v>214.5321268977437</v>
       </c>
       <c r="R5">
-        <v>1963.91053915474</v>
+        <v>1930.789142079693</v>
       </c>
       <c r="S5">
-        <v>0.002775815472764477</v>
+        <v>0.002478156220978862</v>
       </c>
       <c r="T5">
-        <v>0.002775815472764477</v>
+        <v>0.002478156220978862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I6">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J6">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>22294.58058358502</v>
+        <v>21157.80488587864</v>
       </c>
       <c r="R6">
-        <v>200651.2252522652</v>
+        <v>190420.2439729077</v>
       </c>
       <c r="S6">
-        <v>0.283602926192405</v>
+        <v>0.2444032348832718</v>
       </c>
       <c r="T6">
-        <v>0.283602926192405</v>
+        <v>0.2444032348832718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I7">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J7">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>24512.09966006942</v>
@@ -883,10 +883,10 @@
         <v>220608.8969406247</v>
       </c>
       <c r="S7">
-        <v>0.3118113464683843</v>
+        <v>0.2831501889262897</v>
       </c>
       <c r="T7">
-        <v>0.3118113464683843</v>
+        <v>0.2831501889262897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I8">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J8">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>13586.62088147963</v>
+        <v>18605.726329108</v>
       </c>
       <c r="R8">
-        <v>122279.5879333167</v>
+        <v>167451.536961972</v>
       </c>
       <c r="S8">
-        <v>0.1728314836248357</v>
+        <v>0.2149230379386787</v>
       </c>
       <c r="T8">
-        <v>0.1728314836248357</v>
+        <v>0.2149230379386787</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I9">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J9">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>9887.67613370095</v>
+        <v>9549.436976111525</v>
       </c>
       <c r="R9">
-        <v>88989.08520330857</v>
+        <v>85944.93278500372</v>
       </c>
       <c r="S9">
-        <v>0.1257782748703083</v>
+        <v>0.1103098029717303</v>
       </c>
       <c r="T9">
-        <v>0.1257782748703083</v>
+        <v>0.1103098029717303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H10">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I10">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J10">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>2027.103338639743</v>
+        <v>3104.181902564075</v>
       </c>
       <c r="R10">
-        <v>18243.93004775768</v>
+        <v>27937.63712307668</v>
       </c>
       <c r="S10">
-        <v>0.02578619662196761</v>
+        <v>0.03585778878030632</v>
       </c>
       <c r="T10">
-        <v>0.02578619662196761</v>
+        <v>0.03585778878030632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H11">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I11">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J11">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>2228.728137392338</v>
+        <v>3596.309568457138</v>
       </c>
       <c r="R11">
-        <v>20058.55323653104</v>
+        <v>32366.78611611424</v>
       </c>
       <c r="S11">
-        <v>0.02835100750525877</v>
+        <v>0.04154257480459258</v>
       </c>
       <c r="T11">
-        <v>0.02835100750525877</v>
+        <v>0.04154257480459258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H12">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I12">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J12">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>1235.344367498797</v>
+        <v>2729.751941016566</v>
       </c>
       <c r="R12">
-        <v>11118.09930748917</v>
+        <v>24567.76746914909</v>
       </c>
       <c r="S12">
-        <v>0.01571445922314938</v>
+        <v>0.03153258140019156</v>
       </c>
       <c r="T12">
-        <v>0.01571445922314937</v>
+        <v>0.03153258140019156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H13">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I13">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J13">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>899.0230261057769</v>
+        <v>1401.052216938931</v>
       </c>
       <c r="R13">
-        <v>8091.207234951992</v>
+        <v>12609.46995245038</v>
       </c>
       <c r="S13">
-        <v>0.01143621248949058</v>
+        <v>0.0161841786474171</v>
       </c>
       <c r="T13">
-        <v>0.01143621248949058</v>
+        <v>0.0161841786474171</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H14">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I14">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J14">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>123.6336423728302</v>
+        <v>72.90253319992401</v>
       </c>
       <c r="R14">
-        <v>1112.702781355472</v>
+        <v>656.1227987993161</v>
       </c>
       <c r="S14">
-        <v>0.001572707888417328</v>
+        <v>0.0008421296557630402</v>
       </c>
       <c r="T14">
-        <v>0.001572707888417328</v>
+        <v>0.0008421296557630402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H15">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I15">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J15">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>135.9307994971431</v>
+        <v>84.460281626888</v>
       </c>
       <c r="R15">
-        <v>1223.377195474288</v>
+        <v>760.1425346419921</v>
       </c>
       <c r="S15">
-        <v>0.001729136475679952</v>
+        <v>0.0009756383594661533</v>
       </c>
       <c r="T15">
-        <v>0.001729136475679952</v>
+        <v>0.0009756383594661533</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H16">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I16">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J16">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>75.34402456320935</v>
+        <v>64.10894649670401</v>
       </c>
       <c r="R16">
-        <v>678.096221068884</v>
+        <v>576.9805184703361</v>
       </c>
       <c r="S16">
-        <v>0.0009584295949021446</v>
+        <v>0.0007405510161978403</v>
       </c>
       <c r="T16">
-        <v>0.0009584295949021445</v>
+        <v>0.0007405510161978403</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H17">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I17">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J17">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>54.8316847867689</v>
+        <v>32.90408196628199</v>
       </c>
       <c r="R17">
-        <v>493.4851630809201</v>
+        <v>296.136737696538</v>
       </c>
       <c r="S17">
-        <v>0.0006974980397270471</v>
+        <v>0.0003800897170949445</v>
       </c>
       <c r="T17">
-        <v>0.0006974980397270471</v>
+        <v>0.0003800897170949445</v>
       </c>
     </row>
   </sheetData>
